--- a/data/trans_orig/P79A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A1_2023-Edad-trans_orig.xlsx
@@ -1072,16 +1072,16 @@
         <v>8132</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4646</v>
+        <v>3842</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>9062</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8974269323000827</v>
+        <v>0.8974269323000825</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5127129842162114</v>
+        <v>0.4239601858609441</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1093,16 +1093,16 @@
         <v>17343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13800</v>
+        <v>13112</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>18272</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9491313514964673</v>
+        <v>0.9491313514964671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7552742501609704</v>
+        <v>0.7176126893740811</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4416</v>
+        <v>5220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1025730676999174</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.487287015783788</v>
+        <v>0.5760398141390559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4472</v>
+        <v>5160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05086864850353285</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2447257498390296</v>
+        <v>0.2823873106259185</v>
       </c>
     </row>
     <row r="12">
@@ -1429,16 +1429,16 @@
         <v>3501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>786</v>
+        <v>709</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6266</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5587557700312005</v>
+        <v>0.5587557700312004</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1254629244598297</v>
+        <v>0.1131908096985262</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1450,19 +1450,19 @@
         <v>4110</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1976</v>
+        <v>2064</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5451</v>
+        <v>5461</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6764507233163142</v>
+        <v>0.676450723316314</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3252500793909573</v>
+        <v>0.3397664056103605</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.897142160213878</v>
+        <v>0.8988024504977284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1471,19 +1471,19 @@
         <v>7611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4006</v>
+        <v>4149</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10503</v>
+        <v>10352</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6166953030502507</v>
+        <v>0.6166953030502508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.324591255602723</v>
+        <v>0.3362075040563093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8509890069689001</v>
+        <v>0.8387233658742373</v>
       </c>
     </row>
     <row r="17">
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5518</v>
+        <v>5551</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4412442299687996</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8805861898346814</v>
+        <v>0.8858357103372331</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1521,19 +1521,19 @@
         <v>1966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4100</v>
+        <v>4012</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3235492766836859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1028578397861219</v>
+        <v>0.1011975495022714</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6747499206090425</v>
+        <v>0.6602335943896396</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1542,19 +1542,19 @@
         <v>4731</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1839</v>
+        <v>1990</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8336</v>
+        <v>8193</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3833046969497491</v>
+        <v>0.3833046969497492</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1490109930310999</v>
+        <v>0.1612766341257627</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.675408744397277</v>
+        <v>0.6637924959436908</v>
       </c>
     </row>
     <row r="18">
@@ -1680,7 +1680,7 @@
         <v>2033</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>3049</v>
@@ -1689,7 +1689,7 @@
         <v>0.6666795584275379</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1165422651536191</v>
+        <v>0.1678814167478904</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1847,19 +1847,19 @@
         <v>30961</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24705</v>
+        <v>24518</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33719</v>
+        <v>33707</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8911634239501254</v>
+        <v>0.8911634239501253</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7110862980781096</v>
+        <v>0.705715058155631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.970559150217009</v>
+        <v>0.9702157100088056</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -1868,19 +1868,19 @@
         <v>22604</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18793</v>
+        <v>18966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24806</v>
+        <v>24818</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.886454536638155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.737008594944676</v>
+        <v>0.7437806535327599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9728278536387069</v>
+        <v>0.9733082937331488</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -1889,19 +1889,19 @@
         <v>53565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46745</v>
+        <v>47216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57291</v>
+        <v>57359</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8891702126010994</v>
+        <v>0.8891702126010995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7759641094291435</v>
+        <v>0.7837797016899024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9510349102973898</v>
+        <v>0.9521533868826897</v>
       </c>
     </row>
     <row r="23">
@@ -1918,19 +1918,19 @@
         <v>3781</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10037</v>
+        <v>10224</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1088365760498748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02944084978299099</v>
+        <v>0.02978428999119431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2889137019218905</v>
+        <v>0.2942849418443691</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -1939,19 +1939,19 @@
         <v>2895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6706</v>
+        <v>6533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1135454633618452</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02717214636129301</v>
+        <v>0.02669170626685134</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2629914050553239</v>
+        <v>0.2562193464672403</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -1960,19 +1960,19 @@
         <v>6676</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2950</v>
+        <v>2882</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13496</v>
+        <v>13025</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1108297873989006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04896508970260999</v>
+        <v>0.04784661311731012</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2240358905708565</v>
+        <v>0.2162202983100977</v>
       </c>
     </row>
     <row r="24">
